--- a/media/predicted_all_drugs_rnas.xlsx
+++ b/media/predicted_all_drugs_rnas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>drug_sequence</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>[H][N]([H])([H])[Pt](Cl)(Cl)[N]([H])([H])[H]</t>
-  </si>
-  <si>
-    <t>[H][C@]12[C@H](OC(=O)C3=CC=CC=C3)[C@]3(O)C[C@H](OC(=O)[C@H](O)[C@@H](NC(=O)C4=CC=CC=C4)C4=CC=CC=C4)C(C)=C([C@@H](OC(C)=O)C(=O)[C@]1(C)[C@@H](O)C[C@H]1OC[C@@]21OC(C)=O)C3(C)C</t>
   </si>
   <si>
     <t>AGCUACAUUGUCUGCUGGGUUUC</t>
@@ -395,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +414,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.999925971031189</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,21 +425,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.98949134349823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.992345929145813</v>
+        <v>0.9893999999999999</v>
       </c>
     </row>
   </sheetData>
